--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/78_Van_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/78_Van_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42888899-258F-4273-BA5D-BCD1E3AC0D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2E02696-FA09-4799-9E4B-35FF60CDD9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28C7E064-462C-4696-9F87-9665A22D48A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31A063BC-C419-48E8-963F-0B1073FDF2D4}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{BC6004A2-0987-4150-A398-C7F2477472A6}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{506B9293-FFD7-4632-B050-9D79D2610EB8}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{99C9B5CF-1E7B-4B65-B6CB-91F7AF66F0F8}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{C5139C97-5640-48D9-AE9B-B113CACBFACA}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{6AC21596-73B1-426E-BDC8-C72C8E2FF8CF}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{BC38447F-0E8A-4DFC-87C8-57E6436C9C27}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{D9A3FD77-664B-456B-A49C-00C11FCC2777}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{5CAB205A-650B-470A-98D6-0944B249A735}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F641B6D-C3FB-4B62-8A39-10484E1E1969}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261B0F5E-ADAC-45A7-9CC6-AF4E4C5A9D46}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2463,18 +2463,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A6B779A5-A59B-4216-A46B-74C461CB44CB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{ECEC2E46-35EC-4E71-B8A4-5848A36FA7AD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C655DB2C-7EAE-456B-8C73-32655FA81994}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{AE2F1D46-6DC1-497F-8B7B-2F23FA64CD0B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E2D98614-A70A-47C7-9869-458BEE49DE99}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{AC21ED8A-D1E5-4C3B-8B78-24AC31AFBB71}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{50EEBBD5-834E-430C-B59D-88C87C53F3C8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{24CD4B08-D434-441A-B99A-247FB0D29112}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{056820B8-9BD3-4F37-BA9B-A6C666FF508C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{030936D4-6A9B-480E-BFA2-AEFE796C4FF1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{18859056-F176-40EF-A814-3B5A45434B12}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1E33B190-FF9A-47C5-930E-AD68CCFB5852}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9D06B7CF-3D20-4ED8-A2E9-2C1CC78DFEBE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1551BDD9-6F1B-427A-A3CF-20143FEFB7AD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F1482BFB-B56B-424B-BF21-F9BE6357B6C0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4CE2F7AC-2274-4D3A-AACD-E3A585C0F587}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{405CCD1A-B7A2-4ED2-BE23-72613602A0C9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B1F6DEDA-54D2-43EF-AB1B-EB37E556790F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{103195A5-E6B5-4DAB-B2D4-E63076F38042}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F6B71742-DE37-438A-AA1C-EFAD384D618F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{22DBCB8B-81FE-4FD8-B6E6-BF42A4EC6F39}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5F7C8B60-7B8B-42E6-A03A-F966575745C5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5999E306-6440-4B86-9718-A19E3CF6DC94}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5B32EEC2-277A-4D45-AC3D-E5E479351B44}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2487,7 +2487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2872513-DE7E-460D-A82E-42673EB0FCE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E0C2BC-2876-496A-A422-0BD9EC9EDA00}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3696,18 +3696,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{86FA30A3-9DFC-4205-A67E-2056F0EE44C8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DE0354F8-4680-4547-AB07-069753E3560C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{24BC109A-C1B2-46CC-B532-B25F9BEB1AF8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A6D6DF83-8762-4597-BF3E-616DC948E044}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A476315C-A40D-4F6F-B029-EFAAE0E76106}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FB7F138F-A1F5-4A20-818D-23684186F6DB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5FFAA2E7-97C7-42BF-824C-48DE4242F8FB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{346BAE7F-D3F6-4D50-A446-06426AF072E6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4BFD35B6-7E28-49E9-97BD-550765C955C7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CC9750BD-E02B-4E30-9E83-12E0D75F7CDC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{690E81A6-9F46-4F97-A2FB-7092E76F9B97}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{516B7611-0212-4C19-8749-ED5B703D1175}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{34949777-F657-465B-A62B-1B8642A89E3A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{22764EF0-BCD9-415B-9CDA-8F55DEEE0D45}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F65B5838-DEAA-4904-9C45-98F5261FB026}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{30A2B0A4-EF1A-4C11-BF85-EA2B6EE88C43}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{12DECEC5-99D1-4959-9BFD-8FDF17487D62}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E7696212-5D10-44DE-A0C5-42277AE37D5E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C3F77647-8BD4-4B4B-9B8A-5693E71D4582}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0635B010-7935-4E9E-883C-E6687ED7F03D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BAB8E6D8-47CA-4D7F-992E-F372E2BBEE82}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0B9C4BB9-8D7B-4254-9DB3-0B0BF6375AC7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C6ACBF73-0B27-4444-93B7-4B31F82199BB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{08A3212E-E381-4736-BD2B-B98F629364DB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3720,7 +3720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48C7641-EE3D-4C41-8127-704BF629B323}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A084827-4EA0-4896-9A1E-115EB6F18A9D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4925,18 +4925,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4CC6AF79-216A-4413-9CC2-03148DEC7427}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{45A2B507-E0DE-4BA2-A39A-D6322A7D3B12}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DF3D66E3-9821-43E8-A13F-3DE06767F449}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9FCEC704-D734-4F69-9383-510F46822E1D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{487D7650-C098-46EE-8A81-0D250DAE6448}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{745F342E-B951-42E7-8E51-AC5F6F578D86}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{EFE79E67-C24A-4017-9625-6BC315DAC2E4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{16283BC7-3209-461D-B7C6-45B1D1D58AD3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{EDC2D3B0-98FE-4DB9-BE6F-EC95FFF9CBAA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{700F2CF9-6F71-4B12-904D-3026CB641C56}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{942C2B56-5574-4EBB-971E-A1659AB979CE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5D81D424-D464-4CFB-983E-DEE9B69B9CF5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AD0E9752-BF1F-4543-85C9-4348E97FF6AE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0DD771CB-BFCE-4D7D-8325-5AE43FF694F1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{185A5BD2-C818-4FEC-AF44-2DE2DCF299FC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1BD78F40-6F36-4C95-863F-712A16EA28E0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{05080EFC-3772-491A-9020-0594F65CECA1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{EF22EDA6-85EF-42FB-9221-53282F356862}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C3216153-1344-4470-B4FF-4381F586C175}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7CABC301-3B60-41AD-BDF5-FE717D675344}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B0E0886B-5B34-4E4C-8C34-52856AAE3B8E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CD852A21-80FD-4D93-A787-54BE310C81E1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3D2985E4-6678-4801-98E2-475F77FA1692}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{96E6EF88-869E-44B0-A228-E6271B4D8226}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4949,7 +4949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DEFDBA9-5709-4A03-9BE9-204C872F7A97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D360F57-272E-4585-967A-FD509CCEAD77}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6138,18 +6138,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4917A8A2-E51F-4A9E-B28F-449D989A842A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B3879698-FFB9-4A06-BBC3-7016D78AD5B8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5869C3FC-6FEF-4623-B926-9E6D82C7FDF1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8DCD85D0-C1D9-4AF8-8C2F-62C0817684C8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E0247891-189D-4691-90E0-EB105969656E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{380AC877-A8D1-4285-9356-FA64E732D79A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{507F78E5-5C07-40EE-89D1-4E91CB1B1384}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{12D21AA9-6FBD-413D-8FDE-345AF5CF6279}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{39F31D79-FE06-445B-9560-52BA282CA8E1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{871A2118-F2C7-46B7-BF90-B76B3B619FE7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{461B8F31-E3C8-4ADC-9DA2-9AB5603691DD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5D83D550-9A9A-4445-9FB9-AC0737DC89D8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{28DDEA3E-0C84-4514-98B7-33E4E43018D1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8EF9A7AE-A08E-4541-8DC7-12FE78A74471}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B4C923F0-1D48-48E7-A9BB-61F8D353AD16}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BCA9BBC2-EBA5-4B1C-A802-4A696EDCC571}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F08FDD6F-1386-4DEA-9E56-993ACAD0B0F7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{75BBBEA6-6A98-4441-A344-E91D48A2D0D7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DC02F28E-203E-461C-954B-840BACC63E52}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E5C110E0-220F-4AC7-BCAD-5B0DA4346CCE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{74EF4500-FBE5-4DAC-9AF9-08BD7F3FB725}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CB962B52-3AAF-468D-9656-11CC48766219}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B0FDA98C-E881-4395-A5D2-96273C9226E0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BDB9575C-DB3A-4C07-898C-464FFED89D18}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6162,7 +6162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322E8F98-BEC0-40CE-A133-C805A6635D78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500FB1CD-6316-43BB-8D03-F63A398CB34F}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7391,18 +7391,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6FB6CBDA-C849-4040-85C7-4434A942DDE5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D41F2071-7701-447E-B81F-4B79E625831B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8DB2369B-0BFA-42E1-93E3-0B8900633763}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B0D1BBD6-D730-4F0D-BCC6-F24C557F7376}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2C2CC767-403F-4608-A802-708724278F4D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E6783C99-E77C-44D3-BB1A-F20458158B9D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F19AD85F-D12F-4CF7-91B8-B1EC2C0774A1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B0541DF1-29CE-410F-8B12-B47080FF5BFB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0605DFF3-E4BB-4010-8070-36578F73BCD5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7C6D428B-8E14-4636-BC3F-2ED44BDF1A82}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{718812D5-FE18-4FD3-B343-D5B2857F60CB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{55C972C7-08B4-4F74-B737-05F0CB70A44E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A0008659-3A5D-4E42-837E-52C5F9A6BE88}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{55221D34-09DF-45D6-94F4-794E7E6CA48E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5774F667-014E-41FB-96B4-BDF059A6E9C5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0DCF0B24-566B-4823-BD25-6174FA2A7020}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{62278213-AE07-4210-A0E0-70A3E143308E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0745BF0D-58AE-4F1E-B641-DF6B5B62EDAF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{12293349-8A49-4ADD-BF0A-B98730DDD202}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D841E49C-31CF-4FA6-8B0B-9405E8A5AB1A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C696D07A-54C5-43DF-8605-C38D169EE880}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0C59215C-35C1-44BD-AA8C-962D794953BA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{312F191B-9122-40DA-8147-FE2FF7CA7C90}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{38F19A0F-E9BA-49B2-9AB0-26BF9DCB2474}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7415,7 +7415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A805F932-BF64-44EC-8BE4-C3C29B2494A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06871AFD-A285-4238-A3CD-53CCC2275D51}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8644,18 +8644,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3AA31AA4-D0D5-41E6-921E-E26F938ECB94}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CC27EB7E-8971-436C-B811-2589090B1DFB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{684A257C-1714-45B8-AF80-C43E60C7ECD0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{59670F51-AA93-417A-BF71-9CEB6CCEA7BA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{31D638B9-95A3-4432-86B6-B07447598944}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{17BF4629-FE7E-4EDA-A399-C6FD012A04A6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B3114CF0-C6DD-43A8-88DC-6FA53140BFC9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C0C36759-E55A-4540-8BF0-A3274EC38BC3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B995E642-795F-429B-B42A-99C8C2D740D4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8616B803-35E8-4A3C-9C70-27BC2E4E4828}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B3A05A46-68D9-41F4-93CC-A8124D7FE32D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{11070D5A-F552-409E-81A0-2C2458EDC4BC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4598EB19-3E07-43E1-B1A2-FF5235540DE5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7901F82B-6758-4EEF-A9BB-DAE614B9E8D2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{06BB45F5-4A9B-4D42-803C-1E3B2E115B9D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{999ADAB9-ACCB-4371-BB66-AD8AE0F808F1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A6526376-5402-41E9-B55E-A800297A9FD0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5F81BC31-D923-4665-9F8D-724D398E97E8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{97962678-A001-4C99-8304-9677C64C98EE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{50FDF05B-C4DB-4AD9-85CF-9C690F8C3CC3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{EC86D960-6298-4016-811F-D3022D110822}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CDA2D0EE-2727-4B1A-98F6-78E30FB153B1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3434BA14-C9CF-4BFA-9A9B-0C1DA58D37B5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E92396A0-2A90-4532-9C5C-1C30733DB09A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8668,7 +8668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5D2853-6FD9-49B0-979C-DDAC1BA26E15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F9E0BF-E48B-40CC-9E7E-553FC0D00437}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9895,18 +9895,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DDA194DE-9B77-4B3C-989C-E1D6010505AD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{10DC258F-AB6D-49B2-B467-2399817CD59B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E463B01C-615E-47BF-AC30-C438877433DC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4D7AF83F-9750-4859-A120-744C755E279C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AB013BE5-FBE3-490D-83CE-499F187CFC80}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A53460DB-2B11-4351-A9FC-410ACFF4843C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0DFFD7AA-9087-4839-A879-4A36BD822310}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D9661827-0487-4CAA-8D34-3394D84C3A31}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C34556BF-950B-426B-AFC2-245FB37DE113}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F956D8CD-0A49-40A6-9E98-2F111B059234}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1F8867DD-2A33-4791-AD1C-2E41E183ED88}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1F270B29-DBDB-4273-AF2E-413E1D21E5B6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9A6872F8-3467-42F6-B57C-3FF53604ABA4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{41192D90-63C6-4694-A98C-79BEF3958A59}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1B080147-F876-45CB-829D-875A337D9988}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1B5C8F35-A59B-4B55-BFDA-9F23E74DB2B6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{739FCA29-5447-4877-B2E2-5BDE75AF5DC2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5158F28B-B32F-4489-B88E-6DE3057C3408}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D7B2AEA9-72DF-4D83-B043-63436B660720}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5D5A8C7C-9321-41C0-8650-AD4EA41633DB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9DEE6108-4425-49DD-9EE4-939CA978BBAF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D17F9F10-06BC-489A-B9A0-759F9E1CD68F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A6DFCCC4-5E95-400D-A53B-74CA644D9322}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1EC36467-32A5-490C-9729-91B93082D64E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9919,7 +9919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220FBD9A-F27F-48E8-B000-1F975B42094F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A12B855-EF0E-4EB6-825E-BB9EFC8CB078}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11142,18 +11142,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7D4E7645-5F8A-489C-9C32-D8D4156F6DF4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{91A4AF9D-883D-496D-A7C2-74855189ED50}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3AFEB5D5-9308-4433-B40B-B430BF0D8AA5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{AB0E86BE-A701-4F47-9D47-3A1080F73205}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{608D13AE-8426-43F5-AB53-1DA3F9E0B415}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6E299197-E0A9-45CC-BFB4-C81089B8517F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B2A5B3C0-5A9B-4050-AC22-ACED2149E9D0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C7A7048B-48EE-4B37-9376-EB0CEE961034}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F9AC1EC3-25AF-429B-A174-A159FF27E6C2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E1C71708-0D46-4BD7-A518-DCF39913226C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3D763F91-10E4-4643-953B-D5BE0C0B02F1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4D8ECF1B-67F9-4469-85E5-EFC6194060BD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0FC6DC56-6AB2-42B3-957C-C6137C77AA73}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0A826608-2603-48C1-8A54-40D489F11E7D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D7BB13F1-6BD6-42B7-8E94-24CF42B30E84}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CAE8F540-8ADE-405D-95F7-1BDCC465EC46}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BBF76774-4BBF-49F7-9F93-9992882E6E17}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{57FAD77D-5F96-4B98-BEBC-04B4BFE183D6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E6DE7EAA-8302-470B-84BC-96F749042A88}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7D97BBD3-D0DF-4734-8C4C-35032CAB1FE8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6FEA8DBD-BC2E-474E-8973-C233B21A79BC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B6B9DB8A-9AEC-4C1A-A01D-98E2D2C5711E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{28CE6E79-E555-4602-82CC-96ABBB475E95}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{32693C6F-1B9B-4567-B011-8A8F407B6DED}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11166,7 +11166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6721E5E-63C4-45AB-A9A8-9F6A759975B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F3E6BE-6AD4-4FF4-B2DF-BA8B2A8584F3}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12389,18 +12389,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{84261EA8-C303-4BBD-B17B-46A4F56BC5E2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0DBDBA1D-FE33-4BF8-AABB-47C0BF54690D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CD2DB1CB-9947-4BFF-9A46-533B2A7609A3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2E0B98AF-7D6D-4E4F-BFF2-1B142A131126}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{81C04717-CE03-4E21-B048-840033633281}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{093DB829-565E-4B9C-B5BA-4A853FCDFA9C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{AA4D4561-9B53-4DE4-8A96-70F08CF00AA0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A8FFDA9B-71D7-4BAD-B07F-6E5927020D11}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8497BFE0-CBF5-40CA-9ED1-9D2803349207}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{11EA9815-535D-4950-AA0A-19C1CA62B208}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5248B72C-2166-4911-BE91-7A51A6AEAE22}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CACC13E0-B48D-4580-B89E-DD4A2BF972D3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{960E775A-5A72-4783-8038-196475F753B1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{03A9435D-783F-445E-A908-82F15F474064}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BD090767-58D4-43E4-B6B7-CBB149434BD9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D12E2E38-3CE5-49AD-B66D-FE5FF03BDE75}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{51A0D6E9-1B9C-4B0F-89C2-CC8744AB234D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{586F9DAC-DBAA-46CC-945D-6EBAE85E6C83}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{98282A04-7D7D-4ABB-B102-EC8D0A2EB47A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E194D248-15D7-4A18-9F1D-B1EC4F9DC4A7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4F3C5066-80E6-414A-A2DA-CFA49C9EB9F1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{ABE814B2-19CD-4B13-B3CF-BC42484C3A90}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5AB622B2-5E9A-4D97-AF79-E358A302AB89}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{54FE8E4B-8FBC-4BEB-8B89-F2EA212B59CA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12413,7 +12413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445DFA55-0B83-443B-8441-73A0B4F9BB5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2CF359-62B4-4BE7-AA57-09A6F9F88C08}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13636,18 +13636,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E27466A8-44E1-4FE9-A467-91666A1C88CC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{627FCFF6-CEDB-4E58-9E02-405DFC360D42}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E4614100-D73E-49B4-BBFD-834EE6500342}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{58E346A1-4A62-4D9A-A9F0-F33F8B608208}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0A55468B-5545-4A30-98B8-1DB701E6866B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F9695B85-C873-49FE-88D1-9495DAEC6CD7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1EE4A843-34E4-4D31-9B0A-1D4476432381}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{429D58E4-D5BF-4EEA-9A40-1817910AD5D3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DE7B82E4-A881-47EE-925D-404E7EF5B5D4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FD297634-E14F-488D-BF57-6D32B4BFE80E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4553193E-7F4B-44F9-951C-4E8B0A32F6BE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2B527721-0C98-473C-9F6C-2D49DB9B277A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{77146CFC-4496-40DF-948E-717F7C0E7BB2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1D43F193-AC2D-438D-A8A0-6D5000B693F9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7735C7EC-6786-443C-B3AE-F3D0540535A7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E9CBEAF1-EC39-4E64-BCD5-16AA443931B8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8E7A672D-5CF6-4E3E-B156-394683276D7F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{80473CF1-9C3E-4E55-93C9-525C7630E10E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D6D948FC-AFB1-45B2-8145-B7E998EB1930}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EC3EF756-8332-4522-93F3-6A35BD4A29DD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{89BF9375-241F-4F85-8AA6-4419624C13D1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{BFDD8ED1-1830-4D2F-94D2-7F56EBB8E9BD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{62C47A1A-DA5D-423A-908A-281D681F11DB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{40441424-DCAA-4F2B-8F69-16E4C23331D7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13660,7 +13660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CB0EAF-73FB-4C8C-A6F7-DE5CA583E2AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72094FEE-65E1-4496-AD89-6346611ED821}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14883,18 +14883,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{82D50A38-4556-4AD7-81B2-DB74A2DB5369}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A853D06C-036E-4BEB-AE80-BB22DC822C2C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E08D58F4-565A-425A-9318-4254AA4481ED}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{040B86C0-ED38-4C2A-80CC-0FF90F7ED09A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{75A5E486-C4D6-4282-9955-155DD47CBDC3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F6D3DBD1-75CC-4536-BB63-F459AB157F0E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8FA33032-15FE-40D6-999E-5DEC638227FD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5D657161-4D1E-446D-9867-5948CA36A151}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{92B4037E-9F60-4F30-A861-99273507FFEF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{425F8333-BF6E-4976-88B1-28C42A73F125}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B04719CE-08F8-4AB9-A975-D2646EBB547B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CD7560FB-778E-4839-B4A1-A38C61DF4478}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5F897F3F-8403-42B4-9FE8-CFD1245422FF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{74301601-848B-4002-837F-D2D7E22F0983}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3AB84D1D-0C33-405F-A9DE-77DD18C58A6D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{740BC9F8-92BF-4548-942A-1EC5CDA9C687}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6076E768-3053-40BA-B94E-086EBCC98A01}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{55A19084-1EE0-43BC-A3A4-851F4AC925CB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8F861BEF-95A3-4A57-947B-F946E518AC48}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0A09CB93-EC75-4350-93FC-B26675E5AB4A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4BF0EDE5-17CB-465A-8921-175C8747CDC6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C8C241E5-B432-4990-8280-6FAFFB43D37E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B186A87C-FCAF-46A1-9E97-C6A9A39429B0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{12A349FC-749E-4212-A2F2-E8BCE2E4FECF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14907,7 +14907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083DFF21-EDDF-4B78-ACEC-93AF52A4FADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14B7816-A679-4DF6-A0CC-1A7BF6E53B28}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -16126,18 +16126,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5B2A9771-509F-444C-BFBF-FEC777DD6CBA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{985166E4-53CF-4FE3-B8D5-B015749A1CFC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3C980439-91F0-4BB2-8C99-7CF1B4B43132}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{71099A9A-69CB-436A-B5A1-9B9F724C9A43}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3BE011AA-98E3-4431-A1CC-593A4531BB01}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E95F08D0-B45B-472A-8A15-F8301F2E5850}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6ACA3862-659F-498F-A1FD-84FF8A39DE9D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B64FED46-F6F0-4E44-B65F-747011DFD507}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{46C7C2C9-21E1-4A78-B89D-C8DC26572EDD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2469D22C-F7F2-41AD-9A31-8736646B8912}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{28166946-6F07-43C7-B926-CCB5C775A173}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A304B076-2685-4C93-BBCD-71A35BDD6E02}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A074CC3F-F6DB-4706-8EA5-024CB961FE40}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{20A7A0D6-1B2C-4901-9D96-D10AEF73803C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A365E6CE-70CF-4D76-830A-913F2B93C371}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{109C4AB4-47ED-469F-9A2F-C35775B65E78}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{64AFC3E6-FBB2-44AD-AECA-0F831E22CACE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E37379F8-2DC3-4AB1-9765-D55A794EAE66}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4B737A5C-0292-4A9C-9AFF-0CE421519BAC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FEAA3AA7-D0FC-46AB-B65D-EA2158D93A66}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{01376768-5247-4D2C-B6D0-340140AB4361}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{49B67856-D4F8-4C02-BFE0-F9971FDB8A40}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6BD095DD-F584-4C66-B3E9-25A4F954C332}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8A155B01-98EF-49E4-8ACD-0E446B99315D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
